--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2222321.781731712</v>
+        <v>-2224909.292937289</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>244.9225749013984</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>296.3356618821741</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406815</v>
+        <v>48.08148421406804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>199.1079442114026</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173974</v>
+        <v>11.79954938173969</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>50.99029803362762</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>98.62837588899006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978307</v>
+        <v>92.33507763978301</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.5265847550643</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>278.9463847679595</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>64.09018561476221</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>283.7334226679811</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.41670903610104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>357.5430925691296</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>53.1992054069342</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>211.1474991249035</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>65.38324202937355</v>
       </c>
       <c r="W16" t="n">
-        <v>269.0987184306181</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832885</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833869</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060084</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2293,19 +2293,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>215.302597962404</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,10 +2372,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777465</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>250.7811435429986</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.64226186542889</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797029</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002287</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1437.638726614856</v>
+        <v>1594.788241762162</v>
       </c>
       <c r="C2" t="n">
-        <v>1068.676209674444</v>
+        <v>1594.788241762162</v>
       </c>
       <c r="D2" t="n">
-        <v>1068.676209674444</v>
+        <v>1236.522543155412</v>
       </c>
       <c r="E2" t="n">
-        <v>1068.676209674445</v>
+        <v>1236.522543155412</v>
       </c>
       <c r="F2" t="n">
-        <v>657.6903048848372</v>
+        <v>825.5366383658044</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803943</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842588</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730315</v>
+        <v>237.1001391730314</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315692</v>
+        <v>549.6723906315698</v>
       </c>
       <c r="L2" t="n">
         <v>974.3476699529738</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808269</v>
+        <v>1478.55018180827</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811714</v>
+        <v>1995.525025811715</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.35445007607</v>
+        <v>2470.354450076071</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259757</v>
+        <v>2841.109377259759</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3071.358140510238</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623638</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.70867367284</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614957</v>
+        <v>2918.763735056565</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.44078599836</v>
+        <v>2665.219624439969</v>
       </c>
       <c r="V2" t="n">
-        <v>2214.37789865479</v>
+        <v>2334.156737096399</v>
       </c>
       <c r="W2" t="n">
-        <v>2214.37789865479</v>
+        <v>1981.388081826284</v>
       </c>
       <c r="X2" t="n">
-        <v>2214.37789865479</v>
+        <v>1981.388081826284</v>
       </c>
       <c r="Y2" t="n">
-        <v>1824.238566678978</v>
+        <v>1981.388081826284</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3126773451371</v>
+        <v>1494.450283274069</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8596480640101</v>
+        <v>1319.997253992942</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9252384027589</v>
+        <v>1171.06284433169</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6877833973033</v>
+        <v>1011.825389326235</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1532254241882</v>
+        <v>865.2908313531196</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6989405756882</v>
+        <v>728.8365465046197</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170481</v>
+        <v>637.4540000906363</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247275</v>
+        <v>625.5352633414043</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602528</v>
+        <v>710.7690176891845</v>
       </c>
       <c r="K3" t="n">
-        <v>371.464298498186</v>
+        <v>1068.312822670917</v>
       </c>
       <c r="L3" t="n">
-        <v>718.7577785663799</v>
+        <v>1415.606302739111</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.100675446836</v>
+        <v>1840.238281375767</v>
       </c>
       <c r="N3" t="n">
-        <v>1727.380043941864</v>
+        <v>2290.517649870795</v>
       </c>
       <c r="O3" t="n">
-        <v>2117.07790170106</v>
+        <v>2680.215507629991</v>
       </c>
       <c r="P3" t="n">
-        <v>2410.51172267956</v>
+        <v>2973.649328608492</v>
       </c>
       <c r="Q3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="R3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.6136627297</v>
+        <v>2988.751268658631</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.603124153399</v>
+        <v>2795.740730082331</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.529278295636</v>
+        <v>2567.666884224568</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.377170063893</v>
+        <v>2332.514775992825</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.139813335692</v>
+        <v>2078.277419264623</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.288313130159</v>
+        <v>1870.425919059091</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.528014365205</v>
+        <v>1662.665620294137</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3144413311824</v>
+        <v>627.831295316131</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3144413311824</v>
+        <v>627.831295316131</v>
       </c>
       <c r="D4" t="n">
-        <v>507.3144413311824</v>
+        <v>477.7146559037953</v>
       </c>
       <c r="E4" t="n">
-        <v>455.8090897820634</v>
+        <v>329.8015623214022</v>
       </c>
       <c r="F4" t="n">
-        <v>308.9191422841531</v>
+        <v>329.8015623214022</v>
       </c>
       <c r="G4" t="n">
-        <v>308.9191422841531</v>
+        <v>162.0222795225637</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225638</v>
+        <v>162.0222795225637</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J4" t="n">
         <v>102.2230998038607</v>
@@ -4492,46 +4492,46 @@
         <v>297.5053722589865</v>
       </c>
       <c r="L4" t="n">
-        <v>602.92588227127</v>
+        <v>602.9258822712702</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583197</v>
+        <v>935.3381100583201</v>
       </c>
       <c r="N4" t="n">
         <v>1265.280934468308</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090064</v>
+        <v>1554.020240090065</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077021</v>
+        <v>1777.565915077022</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001215</v>
+        <v>1848.902273001216</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809515</v>
+        <v>1755.634517809516</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.6163853208</v>
+        <v>1755.634517809516</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239671</v>
+        <v>1533.541268728387</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.41609957403</v>
+        <v>1533.541268728387</v>
       </c>
       <c r="V4" t="n">
-        <v>796.731611368143</v>
+        <v>1533.541268728387</v>
       </c>
       <c r="W4" t="n">
-        <v>507.3144413311824</v>
+        <v>1258.261890187918</v>
       </c>
       <c r="X4" t="n">
-        <v>507.3144413311824</v>
+        <v>1030.272339289901</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3144413311824</v>
+        <v>809.4797601463707</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1156.082344952776</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>770.2940923545314</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>763.3485916053279</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>348.2761414503244</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4568,13 @@
         <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2691.069367567292</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2691.069367567292</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158137</v>
@@ -4656,40 +4656,40 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>847.3980557622425</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4741,34 +4741,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1550.864674009677</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046023</v>
+        <v>1296.18018580379</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676417</v>
+        <v>1296.18018580379</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696244</v>
+        <v>1068.190634905773</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>847.3980557622425</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>2295.336172843074</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1926.373655902662</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1568.107957295912</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1182.319704697668</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810558</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2681.936012907196</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>363.7915515140957</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>363.7915515140957</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>363.7915515140957</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>363.7915515140957</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>363.7915515140957</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400713</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121644</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578608</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578608</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578608</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578608</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000589</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138412</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703111</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660704</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381635</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381635</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557704</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963101</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755757</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,13 +5671,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,7 +5704,7 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
         <v>1433.70136564882</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138419</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703117</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713841</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.294644713841</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>365.940507157678</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>365.940507157678</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>198.744407872558</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>952.0555849625739</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.270770777032</v>
+        <v>571.6607764187997</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491251</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367894</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="E28" t="n">
-        <v>336.3048548543962</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4149073564859</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925696</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072717</v>
+        <v>753.3092412490395</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6637,10 +6637,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,13 +6871,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,28 +7093,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,10 +7360,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7561,7 +7561,7 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7606,10 +7606,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150021</v>
@@ -7792,25 +7792,25 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135.0615335795968</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113714</v>
+        <v>5.747744270113628</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.345622083815055e-14</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.224095140800158e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>166.1678701461577</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.548595075901868</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>95.44366461294155</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>13.99641358152672</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664518</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>6.257951202384802</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="W16" t="n">
-        <v>17.42427990597284</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909864879</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788518</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113365</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>71.22040037418699</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6820817884492</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>35.4033308462455</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>70.88187642683988</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1125343.700688741</v>
+        <v>1125343.700688742</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1363559.489815995</v>
+        <v>1363559.489815994</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1363559.489815994</v>
+        <v>1363559.489815995</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1363559.489815995</v>
+        <v>1363559.489815994</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49733.50450522572</v>
+        <v>49733.50450522571</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982127</v>
@@ -26320,37 +26320,37 @@
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60535.99497675043</v>
+      </c>
+      <c r="J2" t="n">
         <v>60535.99497675046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>60535.99497675046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60535.99497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>60535.99497675045</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982126</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023861</v>
+        <v>54832.77288023812</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503628</v>
+        <v>204074.6584503627</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594297</v>
+        <v>32664.344105943</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15222.72472702452</v>
+        <v>15222.72472702448</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316935</v>
@@ -26424,37 +26424,37 @@
         <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="H4" t="n">
         <v>12386.92018181815</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181816</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181814</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="K4" t="n">
+        <v>20377.77944491161</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20377.77944491163</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20377.77944491161</v>
+      </c>
+      <c r="N4" t="n">
         <v>20377.77944491159</v>
       </c>
-      <c r="L4" t="n">
-        <v>20377.77944491159</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20377.77944491159</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>20377.7794449116</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20377.77944491162</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340448.546310182</v>
+        <v>-1340843.367251336</v>
       </c>
       <c r="C6" t="n">
-        <v>-192762.53565498</v>
+        <v>-192762.5356549795</v>
       </c>
       <c r="D6" t="n">
         <v>-137929.7627747415</v>
       </c>
       <c r="E6" t="n">
-        <v>-378385.9168363299</v>
+        <v>-378420.6547617658</v>
       </c>
       <c r="F6" t="n">
-        <v>-52973.45502897479</v>
+        <v>-53008.19295441051</v>
       </c>
       <c r="G6" t="n">
-        <v>-52973.45502897481</v>
+        <v>-53008.1929544105</v>
       </c>
       <c r="H6" t="n">
-        <v>-52973.45502897486</v>
+        <v>-53008.19295441051</v>
       </c>
       <c r="I6" t="n">
-        <v>-52973.45502897482</v>
+        <v>-53008.19295441052</v>
       </c>
       <c r="J6" t="n">
-        <v>-257048.1134793375</v>
+        <v>-257082.8514047733</v>
       </c>
       <c r="K6" t="n">
-        <v>-94628.1066649487</v>
+        <v>-94628.10666494876</v>
       </c>
       <c r="L6" t="n">
-        <v>-61963.76255900573</v>
+        <v>-61963.7625590058</v>
       </c>
       <c r="M6" t="n">
         <v>-147018.7904945175</v>
       </c>
       <c r="N6" t="n">
-        <v>-61963.76255900576</v>
+        <v>-61963.76255900573</v>
       </c>
       <c r="O6" t="n">
         <v>-61963.76255900574</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.968949283033</v>
+        <v>41.96894928303254</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638344</v>
+        <v>51.43073774638322</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="K4" t="n">
         <v>51.43073774638344</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638344</v>
+        <v>51.43073774638322</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>15.66137961936096</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.6620728553727</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.478415537631804</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1679443159937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>49.33295317258188</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.984179106141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>112.826602852094</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29092,10 +29092,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578954</v>
+        <v>4.212292467578957</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359297</v>
+        <v>43.139140233593</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563378</v>
+        <v>162.3944053563379</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>357.5130578201798</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727968</v>
+        <v>535.8193979727971</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774663</v>
+        <v>664.7313435774668</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477735</v>
+        <v>739.6416997477739</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212823</v>
+        <v>751.6098757212827</v>
       </c>
       <c r="O2" t="n">
-        <v>709.723892496794</v>
+        <v>709.7238924967944</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034385</v>
+        <v>605.7329222034389</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.8801982082674</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>264.6004167165569</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495551</v>
+        <v>95.98761460495557</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.43931027682689</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3369833974063164</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195666</v>
+        <v>2.253775163195667</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.76672328665289</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967534</v>
+        <v>77.59708346967538</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>212.9323280280608</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621703</v>
+        <v>363.9352639621705</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982519</v>
+        <v>489.3558747982522</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640946</v>
+        <v>571.055224464095</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278061</v>
+        <v>586.1693570278064</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012073</v>
+        <v>536.2304442012077</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825127</v>
+        <v>430.372206382513</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>287.6924225861698</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>41.86288515848089</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284279</v>
+        <v>9.084295504284286</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>16.79927837346625</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826818</v>
+        <v>56.82209903826822</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>219.5243124876262</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086571</v>
+        <v>280.9155404086573</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>296.1860500957855</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328807</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>267.070736350361</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431437</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>158.2189704478502</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738642</v>
+        <v>84.95831373738648</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>32.92864687314393</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964337</v>
+        <v>8.073272837964343</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
@@ -31288,31 +31288,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
         <v>19.17787942451121</v>
@@ -31361,43 +31361,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,19 +31440,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883116</v>
@@ -31467,13 +31467,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,13 +33655,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934933</v>
+        <v>176.4671532934935</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278162</v>
+        <v>315.7295469278166</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074791</v>
+        <v>428.9649286074795</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205008</v>
+        <v>509.2954665205012</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.1968121246919</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751072</v>
+        <v>479.6256810751077</v>
       </c>
       <c r="P2" t="n">
-        <v>374.499926448169</v>
+        <v>374.4999264481693</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.5745083338179</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242458</v>
+        <v>49.01487890242475</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139402</v>
+        <v>86.09470136139413</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>361.1553585674062</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183777</v>
+        <v>350.801495018378</v>
       </c>
       <c r="M3" t="n">
-        <v>563.9827241216731</v>
+        <v>428.9211905420767</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444728</v>
+        <v>454.8276449444731</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567629</v>
+        <v>393.6341997567632</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681824</v>
+        <v>296.3977989681827</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.710648500148</v>
+        <v>147.7106485001482</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726057</v>
+        <v>40.22771958726065</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617432</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>308.5055656689734</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>335.7699270576261</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>333.2755802121093</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>291.6558642644007</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.8037121080373</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615571</v>
+        <v>72.0569271961558</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701982</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
